--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/aldupler_microsoft_com/Documents/Perf Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="846" documentId="8_{438C99D2-45A1-47AF-BBB0-8D52152E19E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25054D11-8336-43F9-AFCF-B8E3C940455C}"/>
+  <xr:revisionPtr revIDLastSave="879" documentId="8_{438C99D2-45A1-47AF-BBB0-8D52152E19E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A511D12F-3366-460C-8A44-CF95DAC6C8C8}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="30" windowWidth="16920" windowHeight="7605" xr2:uid="{8B61D640-2D8F-4915-9EF9-B9A78D22685A}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="16920" windowHeight="11745" xr2:uid="{8B61D640-2D8F-4915-9EF9-B9A78D22685A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId4"/>
+    <pivotCache cacheId="24" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="65">
   <si>
     <t>Test ID</t>
   </si>
@@ -226,14 +226,24 @@
   <si>
     <t>SE ms (Cold)</t>
   </si>
+  <si>
+    <t>SE %</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -406,7 +416,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -461,27 +471,202 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="127">
+  <dxfs count="46">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -505,18 +690,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -680,697 +853,16 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
       <alignment wrapText="0"/>
     </dxf>
     <dxf>
       <alignment wrapText="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3176,7 +2668,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{22AB49F5-B562-413B-967C-00A49042034B}" name="PivotTable1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{22AB49F5-B562-413B-967C-00A49042034B}" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="A3:I38" firstHeaderRow="1" firstDataRow="3" firstDataCol="5"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -3429,14 +2921,14 @@
     <dataField name="SE ms (Cold)" fld="9" baseField="2" baseItem="1" numFmtId="164"/>
   </dataFields>
   <formats count="31">
-    <format dxfId="85">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="44">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3445,21 +2937,21 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="87">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="88">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="89">
+    <format dxfId="41">
       <pivotArea fieldPosition="0">
         <references count="5">
           <reference field="0" count="1" selected="0">
@@ -3480,7 +2972,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="90">
+    <format dxfId="40">
       <pivotArea fieldPosition="0">
         <references count="5">
           <reference field="0" count="1" selected="0">
@@ -3501,7 +2993,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="91">
+    <format dxfId="39">
       <pivotArea fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -3510,7 +3002,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="92">
+    <format dxfId="38">
       <pivotArea fieldPosition="0">
         <references count="5">
           <reference field="0" count="1" selected="0">
@@ -3532,7 +3024,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="93">
+    <format dxfId="37">
       <pivotArea fieldPosition="0">
         <references count="5">
           <reference field="0" count="1" selected="0">
@@ -3553,7 +3045,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="94">
+    <format dxfId="36">
       <pivotArea fieldPosition="0">
         <references count="5">
           <reference field="0" count="1" selected="0">
@@ -3574,7 +3066,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="95">
+    <format dxfId="35">
       <pivotArea fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -3583,7 +3075,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="96">
+    <format dxfId="34">
       <pivotArea fieldPosition="0">
         <references count="5">
           <reference field="0" count="1" selected="0">
@@ -3605,7 +3097,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="97">
+    <format dxfId="33">
       <pivotArea fieldPosition="0">
         <references count="5">
           <reference field="0" count="1" selected="0">
@@ -3626,7 +3118,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="98">
+    <format dxfId="32">
       <pivotArea fieldPosition="0">
         <references count="5">
           <reference field="0" count="1" selected="0">
@@ -3647,7 +3139,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="99">
+    <format dxfId="31">
       <pivotArea fieldPosition="0">
         <references count="5">
           <reference field="0" count="1" selected="0">
@@ -3669,7 +3161,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="100">
+    <format dxfId="30">
       <pivotArea fieldPosition="0">
         <references count="5">
           <reference field="0" count="1" selected="0">
@@ -3690,7 +3182,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="101">
+    <format dxfId="29">
       <pivotArea fieldPosition="0">
         <references count="5">
           <reference field="0" count="1" selected="0">
@@ -3711,7 +3203,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="102">
+    <format dxfId="28">
       <pivotArea fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -3720,7 +3212,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="103">
+    <format dxfId="27">
       <pivotArea fieldPosition="0">
         <references count="5">
           <reference field="0" count="1" selected="0">
@@ -3742,7 +3234,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="104">
+    <format dxfId="26">
       <pivotArea fieldPosition="0">
         <references count="5">
           <reference field="0" count="1" selected="0">
@@ -3763,7 +3255,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="105">
+    <format dxfId="25">
       <pivotArea fieldPosition="0">
         <references count="5">
           <reference field="0" count="1" selected="0">
@@ -3784,7 +3276,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="106">
+    <format dxfId="24">
       <pivotArea fieldPosition="0">
         <references count="1">
           <reference field="2" count="1">
@@ -3793,7 +3285,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="107">
+    <format dxfId="23">
       <pivotArea fieldPosition="0">
         <references count="5">
           <reference field="0" count="1" selected="0">
@@ -3815,7 +3307,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="108">
+    <format dxfId="22">
       <pivotArea fieldPosition="0">
         <references count="5">
           <reference field="0" count="1" selected="0">
@@ -3836,7 +3328,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="109">
+    <format dxfId="21">
       <pivotArea fieldPosition="0">
         <references count="5">
           <reference field="0" count="1" selected="0">
@@ -3857,7 +3349,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="110">
+    <format dxfId="20">
       <pivotArea fieldPosition="0">
         <references count="5">
           <reference field="0" count="1" selected="0">
@@ -3879,7 +3371,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="111">
+    <format dxfId="19">
       <pivotArea fieldPosition="0">
         <references count="5">
           <reference field="0" count="1" selected="0">
@@ -3900,7 +3392,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="18">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3909,7 +3401,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="17">
       <pivotArea fieldPosition="0">
         <references count="7">
           <reference field="4294967294" count="2" selected="0">
@@ -3937,7 +3429,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="16">
       <pivotArea fieldPosition="0">
         <references count="7">
           <reference field="4294967294" count="2" selected="0">
@@ -3965,7 +3457,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="15">
       <pivotArea fieldPosition="0">
         <references count="7">
           <reference field="4294967294" count="2" selected="0">
@@ -3995,13 +3487,10 @@
     </format>
   </formats>
   <conditionalFormats count="1">
-    <conditionalFormat priority="7">
+    <conditionalFormat priority="1">
       <pivotAreas count="32">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="6">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="5">
             <reference field="0" count="1" selected="0">
               <x v="8"/>
             </reference>
@@ -4014,17 +3503,13 @@
             <reference field="4" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="5" count="2">
+            <reference field="5" count="1">
               <x v="0"/>
-              <x v="3"/>
             </reference>
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="6">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="5">
             <reference field="0" count="1" selected="0">
               <x v="8"/>
             </reference>
@@ -4043,10 +3528,7 @@
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="6">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="5">
             <reference field="0" count="1" selected="0">
               <x v="8"/>
             </reference>
@@ -4065,20 +3547,14 @@
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="1">
             <reference field="2" count="1">
               <x v="2"/>
             </reference>
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="6">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="5">
             <reference field="0" count="1" selected="0">
               <x v="1"/>
             </reference>
@@ -4091,17 +3567,13 @@
             <reference field="4" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="5" count="2">
+            <reference field="5" count="1">
               <x v="0"/>
-              <x v="3"/>
             </reference>
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="6">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="5">
             <reference field="0" count="1" selected="0">
               <x v="1"/>
             </reference>
@@ -4120,10 +3592,7 @@
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="6">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="5">
             <reference field="0" count="1" selected="0">
               <x v="1"/>
             </reference>
@@ -4142,10 +3611,7 @@
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="6">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="5">
             <reference field="0" count="1" selected="0">
               <x v="2"/>
             </reference>
@@ -4158,17 +3624,13 @@
             <reference field="4" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="5" count="2">
+            <reference field="5" count="1">
               <x v="0"/>
-              <x v="3"/>
             </reference>
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="6">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="5">
             <reference field="0" count="1" selected="0">
               <x v="2"/>
             </reference>
@@ -4187,10 +3649,7 @@
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="6">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="5">
             <reference field="0" count="1" selected="0">
               <x v="2"/>
             </reference>
@@ -4209,20 +3668,14 @@
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="1">
             <reference field="2" count="1">
               <x v="3"/>
             </reference>
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="6">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="5">
             <reference field="0" count="1" selected="0">
               <x v="0"/>
             </reference>
@@ -4235,17 +3688,13 @@
             <reference field="4" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="5" count="2">
+            <reference field="5" count="1">
               <x v="0"/>
-              <x v="3"/>
             </reference>
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="6">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="5">
             <reference field="0" count="1" selected="0">
               <x v="0"/>
             </reference>
@@ -4264,10 +3713,7 @@
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="6">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="5">
             <reference field="0" count="1" selected="0">
               <x v="0"/>
             </reference>
@@ -4286,20 +3732,14 @@
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="1">
             <reference field="2" count="1">
               <x v="4"/>
             </reference>
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="6">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="5">
             <reference field="0" count="1" selected="0">
               <x v="10"/>
             </reference>
@@ -4312,17 +3752,13 @@
             <reference field="4" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="5" count="2">
+            <reference field="5" count="1">
               <x v="0"/>
-              <x v="3"/>
             </reference>
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="6">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="5">
             <reference field="0" count="1" selected="0">
               <x v="10"/>
             </reference>
@@ -4341,10 +3777,7 @@
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="6">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="5">
             <reference field="0" count="1" selected="0">
               <x v="10"/>
             </reference>
@@ -4363,10 +3796,7 @@
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="6">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="5">
             <reference field="0" count="1" selected="0">
               <x v="11"/>
             </reference>
@@ -4379,17 +3809,13 @@
             <reference field="4" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="5" count="2">
+            <reference field="5" count="1">
               <x v="0"/>
-              <x v="3"/>
             </reference>
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="6">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="5">
             <reference field="0" count="1" selected="0">
               <x v="11"/>
             </reference>
@@ -4408,10 +3834,7 @@
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="6">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="5">
             <reference field="0" count="1" selected="0">
               <x v="11"/>
             </reference>
@@ -4430,20 +3853,14 @@
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="1">
             <reference field="2" count="1">
               <x v="5"/>
             </reference>
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="6">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="5">
             <reference field="0" count="1" selected="0">
               <x v="4"/>
             </reference>
@@ -4456,17 +3873,13 @@
             <reference field="4" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="5" count="2">
+            <reference field="5" count="1">
               <x v="0"/>
-              <x v="3"/>
             </reference>
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="6">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="5">
             <reference field="0" count="1" selected="0">
               <x v="4"/>
             </reference>
@@ -4485,10 +3898,7 @@
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="6">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="5">
             <reference field="0" count="1" selected="0">
               <x v="4"/>
             </reference>
@@ -4507,20 +3917,14 @@
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="1">
             <reference field="2" count="1">
               <x v="6"/>
             </reference>
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="6">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="5">
             <reference field="0" count="1" selected="0">
               <x v="5"/>
             </reference>
@@ -4533,17 +3937,13 @@
             <reference field="4" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="5" count="2">
+            <reference field="5" count="1">
               <x v="0"/>
-              <x v="3"/>
             </reference>
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="6">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="5">
             <reference field="0" count="1" selected="0">
               <x v="5"/>
             </reference>
@@ -4562,10 +3962,7 @@
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="6">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="5">
             <reference field="0" count="1" selected="0">
               <x v="5"/>
             </reference>
@@ -4584,10 +3981,7 @@
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="6">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="5">
             <reference field="0" count="1" selected="0">
               <x v="6"/>
             </reference>
@@ -4600,17 +3994,13 @@
             <reference field="4" count="1" selected="0">
               <x v="0"/>
             </reference>
-            <reference field="5" count="2">
+            <reference field="5" count="1">
               <x v="0"/>
-              <x v="3"/>
             </reference>
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="6">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="5">
             <reference field="0" count="1" selected="0">
               <x v="6"/>
             </reference>
@@ -4629,10 +4019,7 @@
           </references>
         </pivotArea>
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="6">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
+          <references count="4">
             <reference field="0" count="1" selected="0">
               <x v="6"/>
             </reference>
@@ -4642,11 +4029,8 @@
             <reference field="2" count="1" selected="0">
               <x v="6"/>
             </reference>
-            <reference field="4" count="1" selected="0">
+            <reference field="4" count="1">
               <x v="2"/>
-            </reference>
-            <reference field="5" count="1">
-              <x v="1"/>
             </reference>
           </references>
         </pivotArea>
@@ -4666,41 +4050,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6551777A-1177-433A-8202-E3B7DD8E4E42}" name="Table2" displayName="Table2" ref="A1:L121" totalsRowShown="0" headerRowDxfId="119" headerRowBorderDxfId="117" tableBorderDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6551777A-1177-433A-8202-E3B7DD8E4E42}" name="Table2" displayName="Table2" ref="A1:L121" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="A1:L121" xr:uid="{6551777A-1177-433A-8202-E3B7DD8E4E42}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{AADD6BAF-B3EC-43A5-8E98-CC9D10BBAC40}" name="Test ID" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{7528EE5E-F6B2-4A57-AB61-F847C417C78D}" name="Test" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{66896508-A86F-406B-8591-DFC3C8B03BD2}" name="Test Description" dataDxfId="116"/>
+    <tableColumn id="12" xr3:uid="{66896508-A86F-406B-8591-DFC3C8B03BD2}" name="Test Description" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{9FDEB1A4-87CD-409F-846E-24C3682A4DA0}" name="Script Start Line"/>
     <tableColumn id="4" xr3:uid="{EF8D2AEF-9375-4922-8AAD-710BD2A695B5}" name="Model Version"/>
     <tableColumn id="5" xr3:uid="{5A78BA61-32CB-48E1-A567-9225CF544E62}" name="Version Description"/>
     <tableColumn id="6" xr3:uid="{A6AEB792-6E8A-4B1E-8E45-5DA6E4CB49F9}" name="Capacity"/>
     <tableColumn id="7" xr3:uid="{E8189731-B8B2-4C51-A5EA-F669D17AEE31}" name="Number of Executions"/>
-    <tableColumn id="8" xr3:uid="{C5A32DC0-B100-4838-83F3-07CE47E2A559}" name="Average Duration ms (Cold)" dataDxfId="115" dataCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{9C933AEF-159C-4814-B705-06FA12CA9CCB}" name="Average SE Duration ms (Cold)" dataDxfId="114" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{062BAB0E-E410-46DC-9566-A9584A23CD44}" name="Average Duration ms (Warm)" dataDxfId="113" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{7F309941-604B-4C9A-9E4A-C3C608D37C03}" name="Average SE Duration ms (Warm)" dataDxfId="112" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{C5A32DC0-B100-4838-83F3-07CE47E2A559}" name="Average Duration ms (Cold)" dataDxfId="10" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{9C933AEF-159C-4814-B705-06FA12CA9CCB}" name="Average SE Duration ms (Cold)" dataDxfId="9" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{062BAB0E-E410-46DC-9566-A9584A23CD44}" name="Average Duration ms (Warm)" dataDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{7F309941-604B-4C9A-9E4A-C3C608D37C03}" name="Average SE Duration ms (Warm)" dataDxfId="7" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B954C2E0-AAFA-40F1-B75E-5B2D64A504AF}" name="Table1" displayName="Table1" ref="A1:K13" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B954C2E0-AAFA-40F1-B75E-5B2D64A504AF}" name="Table1" displayName="Table1" ref="A1:K13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" dataCellStyle="Comma">
   <autoFilter ref="A1:K13" xr:uid="{B954C2E0-AAFA-40F1-B75E-5B2D64A504AF}"/>
   <tableColumns count="11">
-    <tableColumn id="11" xr3:uid="{43636701-4260-424E-89DE-13AE95879B5D}" name="Test ID" dataDxfId="124" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{43636701-4260-424E-89DE-13AE95879B5D}" name="Test ID" dataDxfId="4" dataCellStyle="Comma"/>
     <tableColumn id="1" xr3:uid="{184B232C-B202-48FD-BD63-1D5210C84CCB}" name="Test"/>
     <tableColumn id="2" xr3:uid="{9F8CA4B8-60E0-4521-92BE-37A8E087BD53}" name="Script Start Line"/>
     <tableColumn id="3" xr3:uid="{C08D89A5-76D2-4760-AC81-B664E3A75816}" name="Model Version"/>
     <tableColumn id="10" xr3:uid="{F92899D1-E879-40EA-8F34-109234F8B50C}" name="Version Description"/>
     <tableColumn id="4" xr3:uid="{E5ACD46F-AC09-493C-9EB9-7750E5BB7527}" name="Capacity"/>
     <tableColumn id="5" xr3:uid="{2EC6EB7E-B365-4E53-B12C-D79DA78EE7C3}" name="Number of Executions"/>
-    <tableColumn id="6" xr3:uid="{B2D63829-C12D-41D9-A246-C135C2F8B977}" name="Average Duration ms (Warm)" dataDxfId="123" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{AA168FBC-5693-42E2-B336-401A3228DF0F}" name="Average SE Duration ms (Warm)" dataDxfId="122" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{2838751B-62FF-4972-AAB3-8FF172328784}" name="Average Duration ms (Cold)" dataDxfId="121" dataCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{4C60F06F-21FE-46C1-86D1-EF192326C16C}" name="Average SE Duration ms (Cold)" dataDxfId="120" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{B2D63829-C12D-41D9-A246-C135C2F8B977}" name="Average Duration ms (Warm)" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{AA168FBC-5693-42E2-B336-401A3228DF0F}" name="Average SE Duration ms (Warm)" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{2838751B-62FF-4972-AAB3-8FF172328784}" name="Average Duration ms (Cold)" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{4C60F06F-21FE-46C1-86D1-EF192326C16C}" name="Average SE Duration ms (Cold)" dataDxfId="0" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5003,10 +4387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614D55E1-0F30-410B-AEBA-666594D5ABE3}">
-  <dimension ref="A2:K46"/>
+  <dimension ref="A2:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5020,13 +4404,15 @@
     <col min="10" max="11" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F2" s="34" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F2" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="34"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F3" s="30" t="s">
         <v>5</v>
       </c>
@@ -5034,7 +4420,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>14</v>
       </c>
@@ -5047,8 +4433,11 @@
       <c r="K4" s="33" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>45</v>
       </c>
@@ -5076,14 +4465,14 @@
       <c r="I5" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="43" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -5091,10 +4480,16 @@
       <c r="G6" s="31"/>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>9</v>
       </c>
@@ -5116,7 +4511,7 @@
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" s="32"/>
       <c r="D8" s="2" t="s">
         <v>39</v>
@@ -5136,16 +4531,24 @@
       <c r="I8" s="31">
         <v>8385</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="35">
         <f t="shared" ref="J8:J9" si="0">(H8-F8)/F8</f>
         <v>1.9010685607098409E-2</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="34">
         <f>(F8-F7)/F7</f>
         <v>-0.5316929211575665</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="44">
+        <f>G8/F8</f>
+        <v>0.86684089615781812</v>
+      </c>
+      <c r="M8" s="44">
+        <f>I8/H8</f>
+        <v>0.86713272249684592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C9" s="32"/>
       <c r="D9" s="2" t="s">
         <v>44</v>
@@ -5165,16 +4568,24 @@
       <c r="I9" s="31">
         <v>2927.8</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="35">
         <f t="shared" si="0"/>
         <v>-3.0417365381032315E-2</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="34">
         <f>(F9-F7)/F7</f>
         <v>-0.78810849224209401</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="44">
+        <f t="shared" ref="L9:L38" si="1">G9/F9</f>
+        <v>0.69107508850381949</v>
+      </c>
+      <c r="M9" s="44">
+        <f t="shared" ref="M9:M38" si="2">I9/H9</f>
+        <v>0.70329089598846994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -5182,10 +4593,12 @@
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="35"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="35"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2</v>
       </c>
@@ -5206,10 +4619,15 @@
       </c>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="35"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="35"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="44">
+        <f t="shared" si="1"/>
+        <v>0.93623252068233387</v>
+      </c>
+      <c r="M11" s="44"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C12" s="32"/>
       <c r="D12" s="2" t="s">
         <v>39</v>
@@ -5229,16 +4647,24 @@
       <c r="I12" s="31">
         <v>771.2</v>
       </c>
-      <c r="J12" s="36">
-        <f t="shared" ref="J12:J13" si="1">(H12-F12)/F12</f>
+      <c r="J12" s="35">
+        <f t="shared" ref="J12:J13" si="3">(H12-F12)/F12</f>
         <v>1.2409747292418774E-2</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="34">
         <f>(F12-F11)/F11</f>
         <v>-0.675525294677502</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="44">
+        <f t="shared" si="1"/>
+        <v>0.86281588447653423</v>
+      </c>
+      <c r="M12" s="44">
+        <f t="shared" si="2"/>
+        <v>0.8593715177178517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" s="32"/>
       <c r="D13" s="2" t="s">
         <v>44</v>
@@ -5258,16 +4684,24 @@
       <c r="I13" s="31">
         <v>442.8</v>
       </c>
-      <c r="J13" s="36">
-        <f t="shared" si="1"/>
+      <c r="J13" s="35">
+        <f t="shared" si="3"/>
         <v>-5.7409400789378041E-3</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="34">
         <f>(F13-F11)/F11</f>
         <v>-0.79595870854381723</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="44">
+        <f t="shared" si="1"/>
+        <v>0.79224973089343387</v>
+      </c>
+      <c r="M13" s="44">
+        <f t="shared" si="2"/>
+        <v>0.79898953446409238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>3</v>
       </c>
@@ -5288,10 +4722,15 @@
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="35"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" s="35"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="44">
+        <f t="shared" si="1"/>
+        <v>0.89175518462316639</v>
+      </c>
+      <c r="M14" s="44"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C15" s="32"/>
       <c r="D15" s="2" t="s">
         <v>39</v>
@@ -5299,28 +4738,36 @@
       <c r="E15" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="36">
         <v>2284.8000000000002</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="36">
         <v>1953.2</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="36">
         <v>2319.4</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="36">
         <v>1959.4</v>
       </c>
-      <c r="J15" s="36">
-        <f t="shared" ref="J15:J16" si="2">(H15-F15)/F15</f>
+      <c r="J15" s="35">
+        <f t="shared" ref="J15:J16" si="4">(H15-F15)/F15</f>
         <v>1.5143557422969146E-2</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="34">
         <f>(F15-F14)/F14</f>
         <v>-0.42215477996965095</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="44">
+        <f t="shared" si="1"/>
+        <v>0.85486694677871145</v>
+      </c>
+      <c r="M15" s="44">
+        <f t="shared" si="2"/>
+        <v>0.84478744502888681</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C16" s="32"/>
       <c r="D16" s="2" t="s">
         <v>44</v>
@@ -5328,39 +4775,49 @@
       <c r="E16" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="36">
         <v>1968.2</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="36">
         <v>1600.2</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="36">
         <v>1945.4</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="36">
         <v>1597</v>
       </c>
-      <c r="J16" s="36">
-        <f t="shared" si="2"/>
+      <c r="J16" s="35">
+        <f t="shared" si="4"/>
         <v>-1.1584188598719619E-2</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="34">
         <f>(F16-F14)/F14</f>
         <v>-0.50222559433485081</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="44">
+        <f t="shared" si="1"/>
+        <v>0.81302713138908644</v>
+      </c>
+      <c r="M16" s="44">
+        <f t="shared" si="2"/>
+        <v>0.82091086665981283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="35"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1</v>
       </c>
@@ -5373,18 +4830,23 @@
       <c r="E18" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="36">
         <v>147.5</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="36">
         <v>69.400000000000006</v>
       </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="39"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="44">
+        <f t="shared" si="1"/>
+        <v>0.47050847457627121</v>
+      </c>
+      <c r="M18" s="44"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C19" s="32"/>
       <c r="D19" s="2" t="s">
         <v>39</v>
@@ -5392,28 +4854,36 @@
       <c r="E19" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="39">
         <v>886.4</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="39">
         <v>769.2</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="36">
         <v>902.4</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="36">
         <v>777.6</v>
       </c>
-      <c r="J19" s="36">
-        <f t="shared" ref="J19:J20" si="3">(H19-F19)/F19</f>
+      <c r="J19" s="35">
+        <f t="shared" ref="J19:J20" si="5">(H19-F19)/F19</f>
         <v>1.8050541516245487E-2</v>
       </c>
-      <c r="K19" s="43">
+      <c r="K19" s="41">
         <f>(F19-F18)/F18</f>
         <v>5.0094915254237282</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="44">
+        <f t="shared" si="1"/>
+        <v>0.86777978339350192</v>
+      </c>
+      <c r="M19" s="44">
+        <f t="shared" si="2"/>
+        <v>0.86170212765957455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C20" s="32"/>
       <c r="D20" s="2" t="s">
         <v>44</v>
@@ -5421,39 +4891,49 @@
       <c r="E20" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="36">
         <v>144.19999999999999</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="36">
         <v>65.8</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="36">
         <v>141.4</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="36">
         <v>69.400000000000006</v>
       </c>
-      <c r="J20" s="36">
-        <f t="shared" si="3"/>
+      <c r="J20" s="35">
+        <f t="shared" si="5"/>
         <v>-1.9417475728155224E-2</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="34">
         <f>(F20-F18)/F18</f>
         <v>-2.2372881355932281E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="44">
+        <f t="shared" si="1"/>
+        <v>0.4563106796116505</v>
+      </c>
+      <c r="M20" s="44">
+        <f t="shared" si="2"/>
+        <v>0.49080622347949082</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="39"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>11</v>
       </c>
@@ -5466,18 +4946,23 @@
       <c r="E22" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="36">
         <v>39665.599999999999</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="36">
         <v>6487.6</v>
       </c>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="39"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="44">
+        <f t="shared" si="1"/>
+        <v>0.16355733935702474</v>
+      </c>
+      <c r="M22" s="44"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C23" s="32"/>
       <c r="D23" s="2" t="s">
         <v>39</v>
@@ -5485,28 +4970,36 @@
       <c r="E23" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="36">
         <v>33085.599999999999</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="36">
         <v>4687</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="36">
         <v>30079.4</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="36">
         <v>4319</v>
       </c>
-      <c r="J23" s="36">
-        <f t="shared" ref="J23:J24" si="4">(H23-F23)/F23</f>
+      <c r="J23" s="35">
+        <f t="shared" ref="J23:J24" si="6">(H23-F23)/F23</f>
         <v>-9.0861281040694353E-2</v>
       </c>
-      <c r="K23" s="35">
+      <c r="K23" s="34">
         <f>(F23-F22)/F22</f>
         <v>-0.16588681376305919</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="44">
+        <f t="shared" si="1"/>
+        <v>0.14166283821360351</v>
+      </c>
+      <c r="M23" s="44">
+        <f t="shared" si="2"/>
+        <v>0.14358664069097121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C24" s="32"/>
       <c r="D24" s="2" t="s">
         <v>44</v>
@@ -5514,28 +5007,36 @@
       <c r="E24" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="36">
         <v>31817.599999999999</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="36">
         <v>4008.4</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="36">
         <v>31210.6</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="36">
         <v>3883.2</v>
       </c>
-      <c r="J24" s="36">
-        <f t="shared" si="4"/>
+      <c r="J24" s="35">
+        <f t="shared" si="6"/>
         <v>-1.907749170270542E-2</v>
       </c>
-      <c r="K24" s="35">
+      <c r="K24" s="34">
         <f>(F24-F22)/F22</f>
         <v>-0.19785405994110766</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="44">
+        <f t="shared" si="1"/>
+        <v>0.12598058935934831</v>
+      </c>
+      <c r="M24" s="44">
+        <f t="shared" si="2"/>
+        <v>0.12441926781285845</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>12</v>
       </c>
@@ -5548,18 +5049,26 @@
       <c r="E25" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="36">
         <v>39669</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="36">
         <v>6457.75</v>
       </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="39"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="44">
+        <f t="shared" si="1"/>
+        <v>0.16279084423605333</v>
+      </c>
+      <c r="M25" s="44" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C26" s="32"/>
       <c r="D26" s="2" t="s">
         <v>39</v>
@@ -5567,28 +5076,36 @@
       <c r="E26" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="36">
         <v>32980</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="36">
         <v>4646.3999999999996</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="36">
         <v>30307.8</v>
       </c>
-      <c r="I26" s="37">
+      <c r="I26" s="36">
         <v>4317</v>
       </c>
-      <c r="J26" s="36">
-        <f t="shared" ref="J26:J27" si="5">(H26-F26)/F26</f>
+      <c r="J26" s="35">
+        <f t="shared" ref="J26:J27" si="7">(H26-F26)/F26</f>
         <v>-8.1024863553668919E-2</v>
       </c>
-      <c r="K26" s="35">
+      <c r="K26" s="34">
         <f>(F26-F25)/F25</f>
         <v>-0.16862033325770753</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26" s="44">
+        <f t="shared" si="1"/>
+        <v>0.14088538508186779</v>
+      </c>
+      <c r="M26" s="44">
+        <f t="shared" si="2"/>
+        <v>0.14243858016748165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C27" s="32"/>
       <c r="D27" s="2" t="s">
         <v>44</v>
@@ -5596,39 +5113,49 @@
       <c r="E27" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="36">
         <v>31672.799999999999</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="36">
         <v>4001.8</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="36">
         <v>31352.799999999999</v>
       </c>
-      <c r="I27" s="37">
+      <c r="I27" s="36">
         <v>3843.6</v>
       </c>
-      <c r="J27" s="36">
-        <f t="shared" si="5"/>
+      <c r="J27" s="35">
+        <f t="shared" si="7"/>
         <v>-1.0103306306988963E-2</v>
       </c>
-      <c r="K27" s="35">
+      <c r="K27" s="34">
         <f>(F27-F25)/F25</f>
         <v>-0.20157301671330261</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27" s="44">
+        <f t="shared" si="1"/>
+        <v>0.12634815993533885</v>
+      </c>
+      <c r="M27" s="44">
+        <f t="shared" si="2"/>
+        <v>0.12259192161465643</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="39"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>5</v>
       </c>
@@ -5641,18 +5168,23 @@
       <c r="E29" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="36">
         <v>106.4</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="36">
         <v>58.4</v>
       </c>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="39"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="44">
+        <f t="shared" si="1"/>
+        <v>0.54887218045112773</v>
+      </c>
+      <c r="M29" s="44"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C30" s="32"/>
       <c r="D30" s="2" t="s">
         <v>39</v>
@@ -5660,28 +5192,36 @@
       <c r="E30" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="41">
+      <c r="F30" s="39">
         <v>435.4</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G30" s="39">
         <v>377.8</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="36">
         <v>468</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30" s="36">
         <v>406.6</v>
       </c>
-      <c r="J30" s="36">
-        <f t="shared" ref="J30:J31" si="6">(H30-F30)/F30</f>
+      <c r="J30" s="35">
+        <f t="shared" ref="J30:J31" si="8">(H30-F30)/F30</f>
         <v>7.4873679375287147E-2</v>
       </c>
-      <c r="K30" s="43">
+      <c r="K30" s="41">
         <f>(F30-F29)/F29</f>
         <v>3.0921052631578947</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="44">
+        <f t="shared" si="1"/>
+        <v>0.86770785484611856</v>
+      </c>
+      <c r="M30" s="44">
+        <f t="shared" si="2"/>
+        <v>0.86880341880341883</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C31" s="32"/>
       <c r="D31" s="2" t="s">
         <v>44</v>
@@ -5689,39 +5229,49 @@
       <c r="E31" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="36">
         <v>101.4</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="36">
         <v>51.4</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="36">
         <v>101</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="36">
         <v>51</v>
       </c>
-      <c r="J31" s="36">
-        <f t="shared" si="6"/>
+      <c r="J31" s="35">
+        <f t="shared" si="8"/>
         <v>-3.944773175542462E-3</v>
       </c>
-      <c r="K31" s="35">
+      <c r="K31" s="34">
         <f>(F31-F29)/F29</f>
         <v>-4.6992481203007516E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="44">
+        <f t="shared" si="1"/>
+        <v>0.50690335305719914</v>
+      </c>
+      <c r="M31" s="44">
+        <f t="shared" si="2"/>
+        <v>0.50495049504950495</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="39"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>6</v>
       </c>
@@ -5734,18 +5284,23 @@
       <c r="E33" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="36">
         <v>1146.5999999999999</v>
       </c>
-      <c r="G33" s="37">
+      <c r="G33" s="36">
         <v>1066.5999999999999</v>
       </c>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="39"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="44">
+        <f t="shared" si="1"/>
+        <v>0.93022850165707305</v>
+      </c>
+      <c r="M33" s="44"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C34" s="32"/>
       <c r="D34" s="2" t="s">
         <v>39</v>
@@ -5753,28 +5308,36 @@
       <c r="E34" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F34" s="36">
         <v>384.6</v>
       </c>
-      <c r="G34" s="37">
+      <c r="G34" s="36">
         <v>332.2</v>
       </c>
-      <c r="H34" s="37">
+      <c r="H34" s="36">
         <v>400.6</v>
       </c>
-      <c r="I34" s="37">
+      <c r="I34" s="36">
         <v>342.6</v>
       </c>
-      <c r="J34" s="36">
-        <f t="shared" ref="J34:J35" si="7">(H34-F34)/F34</f>
+      <c r="J34" s="35">
+        <f t="shared" ref="J34:J35" si="9">(H34-F34)/F34</f>
         <v>4.1601664066562662E-2</v>
       </c>
-      <c r="K34" s="35">
+      <c r="K34" s="34">
         <f>(F34-F33)/F33</f>
         <v>-0.66457352171637885</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="44">
+        <f t="shared" si="1"/>
+        <v>0.8637545501820072</v>
+      </c>
+      <c r="M34" s="44">
+        <f t="shared" si="2"/>
+        <v>0.85521717423864207</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C35" s="32"/>
       <c r="D35" s="2" t="s">
         <v>44</v>
@@ -5782,28 +5345,36 @@
       <c r="E35" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="36">
         <v>242.8</v>
       </c>
-      <c r="G35" s="37">
+      <c r="G35" s="36">
         <v>185.6</v>
       </c>
-      <c r="H35" s="37">
+      <c r="H35" s="36">
         <v>238.6</v>
       </c>
-      <c r="I35" s="37">
+      <c r="I35" s="36">
         <v>183.6</v>
       </c>
-      <c r="J35" s="36">
-        <f t="shared" si="7"/>
+      <c r="J35" s="35">
+        <f t="shared" si="9"/>
         <v>-1.7298187808896279E-2</v>
       </c>
-      <c r="K35" s="35">
+      <c r="K35" s="34">
         <f>(F35-F33)/F33</f>
         <v>-0.78824350252921682</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="44">
+        <f t="shared" si="1"/>
+        <v>0.76441515650741343</v>
+      </c>
+      <c r="M35" s="44">
+        <f t="shared" si="2"/>
+        <v>0.7694886839899413</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>7</v>
       </c>
@@ -5816,18 +5387,23 @@
       <c r="E36" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="37">
+      <c r="F36" s="36">
         <v>1767.4</v>
       </c>
-      <c r="G36" s="37">
+      <c r="G36" s="36">
         <v>1548.4</v>
       </c>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="39"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="44">
+        <f t="shared" si="1"/>
+        <v>0.87608917053298629</v>
+      </c>
+      <c r="M36" s="44"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C37" s="32"/>
       <c r="D37" s="2" t="s">
         <v>39</v>
@@ -5835,28 +5411,36 @@
       <c r="E37" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F37" s="41">
+      <c r="F37" s="39">
         <v>1515</v>
       </c>
-      <c r="G37" s="41">
+      <c r="G37" s="39">
         <v>1339.8</v>
       </c>
-      <c r="H37" s="37">
+      <c r="H37" s="36">
         <v>834.4</v>
       </c>
-      <c r="I37" s="37">
+      <c r="I37" s="36">
         <v>533</v>
       </c>
-      <c r="J37" s="42">
+      <c r="J37" s="40">
         <f>(H37-F37)/F37</f>
         <v>-0.44924092409240923</v>
       </c>
-      <c r="K37" s="35">
+      <c r="K37" s="34">
         <f>(F37-F36)/F36</f>
         <v>-0.14280864546791902</v>
       </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L37" s="44">
+        <f t="shared" si="1"/>
+        <v>0.88435643564356436</v>
+      </c>
+      <c r="M37" s="44">
+        <f t="shared" si="2"/>
+        <v>0.63878235858101629</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C38" s="32"/>
       <c r="D38" s="2" t="s">
         <v>44</v>
@@ -5876,69 +5460,63 @@
       <c r="I38" s="31">
         <v>1055.8</v>
       </c>
-      <c r="J38" s="36">
+      <c r="J38" s="35">
         <f>(H38-F38)/F38</f>
         <v>-2.2475417512096287E-2</v>
       </c>
-      <c r="K38" s="35">
+      <c r="K38" s="34">
         <f>(F38-F36)/F36</f>
         <v>-0.27498019689940023</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J39" s="38"/>
-      <c r="K39" s="39"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J40" s="38"/>
-      <c r="K40" s="39"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J41" s="38"/>
-      <c r="K41" s="39"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J42" s="38"/>
-      <c r="K42" s="39"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J43" s="38"/>
-      <c r="K43" s="39"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J44" s="38"/>
-      <c r="K44" s="39"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J45" s="38"/>
-      <c r="K45" s="39"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J46" s="36"/>
-      <c r="K46" s="35"/>
+      <c r="L38" s="44">
+        <f t="shared" si="1"/>
+        <v>0.8365849851724676</v>
+      </c>
+      <c r="M38" s="44">
+        <f t="shared" si="2"/>
+        <v>0.84288679546543188</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J39" s="37"/>
+      <c r="K39" s="38"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J40" s="37"/>
+      <c r="K40" s="38"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J41" s="37"/>
+      <c r="K41" s="38"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J42" s="37"/>
+      <c r="K42" s="38"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J43" s="37"/>
+      <c r="K43" s="38"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J44" s="37"/>
+      <c r="K44" s="38"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J45" s="37"/>
+      <c r="K45" s="38"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J46" s="35"/>
+      <c r="K46" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
-  <conditionalFormatting pivot="1" sqref="H7 F7 F8 H8 F9 H9 F10 H10 F11 H11 F12 H12 F13 H13 F14 H14 F15 H15 F16 H16 F17 H17 F18 H18 F19 H19 F20 H20 F21 H21 F22 H22 F23 H23 F24 H24 F25 H25 F26 H26 F27 H27 F28 H28 F29 H29 F30 H30 F31 H31 F32 H32 F33 H33 F34 H34 F35 H35 F36 H36 F37 H37 F38 H38">
-    <cfRule type="dataBar" priority="7">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{40D6C53F-4A67-4C2D-B827-22639CB4F35C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K8:K38">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="-1"/>
         <cfvo type="num" val="1"/>
@@ -5952,7 +5530,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J38">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="-1"/>
         <cfvo type="num" val="1"/>
@@ -5965,24 +5543,25 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="F7:I7 F8:I8 F9:I9 F10:I10 F11:I11 F12:I12 F13:I13 F14:I14 F15:I15 F16:I16 F17:I17 F18:I18 F19:I19 F20:I20 F21:I21 F22:I22 F23:I23 F24:I24 F25:I25 F26:I26 F27:I27 F28:I28 F29:I29 F30:I30 F31:I31 F32:I32 F33:I33 F34:I34 F35:I35 F36:I36 F37:I37">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D59AD541-11D7-4317-AA1E-EBA2FDCBCC2C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" pivot="1">
-          <x14:cfRule type="dataBar" id="{40D6C53F-4A67-4C2D-B827-22639CB4F35C}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H7 F7 F8 H8 F9 H9 F10 H10 F11 H11 F12 H12 F13 H13 F14 H14 F15 H15 F16 H16 F17 H17 F18 H18 F19 H19 F20 H20 F21 H21 F22 H22 F23 H23 F24 H24 F25 H25 F26 H26 F27 H27 F28 H28 F29 H29 F30 H30 F31 H31 F32 H32 F33 H33 F34 H34 F35 H35 F36 H36 F37 H37 F38 H38</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A91B0838-DB40-4860-8287-33A0100F529A}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" axisPosition="middle">
@@ -6012,6 +5591,19 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>J8:J38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" pivot="1">
+          <x14:cfRule type="dataBar" id="{D59AD541-11D7-4317-AA1E-EBA2FDCBCC2C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F7:I7 F8:I8 F9:I9 F10:I10 F11:I11 F12:I12 F13:I13 F14:I14 F15:I15 F16:I16 F17:I17 F18:I18 F19:I19 F20:I20 F21:I21 F22:I22 F23:I23 F24:I24 F25:I25 F26:I26 F27:I27 F28:I28 F29:I29 F30:I30 F31:I31 F32:I32 F33:I33 F34:I34 F35:I35 F36:I36 F37:I37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
